--- a/data/trans_camb/P22_R4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P22_R4-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.126367822121018</v>
+        <v>-6.001300737595195</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.803503551639654</v>
+        <v>-4.351344294623654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.499836214408537</v>
+        <v>-2.791810088240017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.905908568026395</v>
+        <v>-6.687705653461625</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.303308229275245</v>
+        <v>-8.106937536215742</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.040364276090374</v>
+        <v>-5.620155016548263</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.389677984741244</v>
+        <v>-5.367247309614863</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.040322883862213</v>
+        <v>-5.063132238388983</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.997976602578855</v>
+        <v>-2.502833207815971</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4821051578141746</v>
+        <v>0.4552582842881639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.789351574841203</v>
+        <v>3.002481503245898</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.081295502202833</v>
+        <v>8.946116329249403</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5994944367323725</v>
+        <v>0.2355127619646763</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.05149564097881</v>
+        <v>-1.18620097726253</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.802098717576516</v>
+        <v>4.410922936078874</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-0.2617706052738332</v>
+        <v>-0.4339779396624334</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08849010772957928</v>
+        <v>0.0559883988156865</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.934013484704282</v>
+        <v>4.781453190253404</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.60440967616251</v>
+        <v>-0.6058644240603563</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4728060540334992</v>
+        <v>-0.455613645913752</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.289712716724212</v>
+        <v>-0.3108664470405835</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.575529097095742</v>
+        <v>-0.5741105586062315</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7057308497452889</v>
+        <v>-0.7061183529061077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.530515787290406</v>
+        <v>-0.5183788685103977</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5158051378857238</v>
+        <v>-0.516491804883041</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.497326570153643</v>
+        <v>-0.5073217789916188</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2995766153026586</v>
+        <v>-0.2531170819824587</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.09973279084688391</v>
+        <v>0.09150520256512286</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4474899765713979</v>
+        <v>0.4492080739221324</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.329109449605049</v>
+        <v>1.227556371830912</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.07976853090613878</v>
+        <v>0.03536439832392111</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1130863167125445</v>
+        <v>-0.117232621254626</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4735461379934314</v>
+        <v>0.5767582518471025</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.02991269780576709</v>
+        <v>-0.05428011763058901</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.0143945010968646</v>
+        <v>0.002446934903009988</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6340584576643218</v>
+        <v>0.599541586806949</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.3306791301669013</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.19782363355201</v>
+        <v>3.197823633552008</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.8271794247339093</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.380666655984087</v>
+        <v>-2.098987254764207</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.994196112907426</v>
+        <v>-6.003872409464868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.110317111607285</v>
+        <v>-5.287547806172934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.291645216701515</v>
+        <v>-6.143145002656658</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.855344113479825</v>
+        <v>-4.099875855643297</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9072073958932912</v>
+        <v>-0.7708675455580176</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.383595458500863</v>
+        <v>-3.329262938232955</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.004480097640467</v>
+        <v>-4.120825670985476</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.521393259239792</v>
+        <v>-1.657954683321661</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.651654796098679</v>
+        <v>4.561571274903545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.229220048585212</v>
+        <v>0.3358374653460838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.297221642488203</v>
+        <v>3.082776389812159</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7130142981055336</v>
+        <v>0.8624525322422607</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.841066074986125</v>
+        <v>3.693239200676189</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.399732920129779</v>
+        <v>7.680234636141312</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.62015078588362</v>
+        <v>1.547322340264476</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8562004700857628</v>
+        <v>0.9701413375050072</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.00376344173536</v>
+        <v>4.268475744342163</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.0285201577774135</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.275803418640944</v>
+        <v>0.2758034186409438</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.07661822166742738</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1962263903943283</v>
+        <v>-0.1868980749457209</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5211578360231727</v>
+        <v>-0.5055008335825334</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4558508036811487</v>
+        <v>-0.4638652624562574</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4656511206291427</v>
+        <v>-0.4534563553795701</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2888120207296817</v>
+        <v>-0.3099324776065561</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06975926452227073</v>
+        <v>-0.08305101297314615</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2823125341941282</v>
+        <v>-0.2751152770318849</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3304849300241591</v>
+        <v>-0.3483972523231206</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1305424240999506</v>
+        <v>-0.1432160778793768</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5440611882287416</v>
+        <v>0.5126051098881188</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02928352378410435</v>
+        <v>0.04943315369610986</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3730931582288501</v>
+        <v>0.3367358902666055</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.07207109797074401</v>
+        <v>0.09743867783350182</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3972701336720028</v>
+        <v>0.3664987225936616</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7480611604569589</v>
+        <v>0.7352440053380146</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1707253420745775</v>
+        <v>0.1672523613605302</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08739603186249931</v>
+        <v>0.097039357598511</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4080122247192122</v>
+        <v>0.4315677233479321</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.4309903727301778</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.199057879173846</v>
+        <v>4.199057879173843</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-1.082676045467887</v>
@@ -1092,7 +1092,7 @@
         <v>-0.834733653928875</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.209997840806746</v>
+        <v>3.209997840806743</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.651834521033662</v>
+        <v>-4.974663730674105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.893852409082025</v>
+        <v>-5.962549531651776</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.25878950655266</v>
+        <v>-1.814373037228637</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.288863288735185</v>
+        <v>-4.206435276302423</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.854540096893657</v>
+        <v>-2.845906618083789</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.251206522949285</v>
+        <v>0.8887265078930421</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.679045093489522</v>
+        <v>-3.799450143978782</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.14693956130437</v>
+        <v>-3.333490814665851</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3912538616922069</v>
+        <v>0.4513269277502543</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.931211117269038</v>
+        <v>2.869028537709872</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.630849363326362</v>
+        <v>1.40585459443438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.235486646189326</v>
+        <v>6.551187103172396</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.982271083273965</v>
+        <v>2.112149536322253</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.134532782183935</v>
+        <v>3.627409579117995</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.537075261210468</v>
+        <v>7.323097484800009</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.296718589296631</v>
+        <v>0.9832512503211415</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.748364265523362</v>
+        <v>1.69405391791931</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.749802388270715</v>
+        <v>5.620452206645123</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.04435977722637181</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4321889393975099</v>
+        <v>0.4321889393975096</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.09347200278331902</v>
@@ -1197,7 +1197,7 @@
         <v>-0.07206608731206487</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2771326920608735</v>
+        <v>0.2771326920608733</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3037393524536588</v>
+        <v>-0.3138206081313228</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3780930055767004</v>
+        <v>-0.3821406513963682</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1510385376367096</v>
+        <v>-0.1257365523129528</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3813402319331003</v>
+        <v>-0.3776314965866513</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2572501283676175</v>
+        <v>-0.2454012356555847</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09797086223530327</v>
+        <v>0.07685908390327216</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2834572256322614</v>
+        <v>-0.2855027656969927</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2526589792823343</v>
+        <v>-0.2590051410962724</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.02497749175854407</v>
+        <v>0.03319714130135504</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2594260776659609</v>
+        <v>0.2618538340391282</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1507247802149453</v>
+        <v>0.1225839906712966</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5253206271065847</v>
+        <v>0.5334080919622501</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2434210785587098</v>
+        <v>0.2640613638157907</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5398528220565076</v>
+        <v>0.4588880791419445</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9547758015308865</v>
+        <v>0.9160471606268442</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1258697619667905</v>
+        <v>0.09809829626610191</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.167228949602611</v>
+        <v>0.1711833107989477</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5589827693881266</v>
+        <v>0.5424759784350489</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-4.428415184930151</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.292562981201616</v>
+        <v>3.292562981201614</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.9664172528557793</v>
@@ -1297,7 +1297,7 @@
         <v>-1.89835230992684</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.021978457902462</v>
+        <v>7.021978457902465</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.43552134683378</v>
@@ -1306,7 +1306,7 @@
         <v>-3.171988490105915</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.143771892875937</v>
+        <v>5.143771892875939</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.127191811688462</v>
+        <v>-8.108279236327304</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.449271951018693</v>
+        <v>-8.594944507060722</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.0978238203896</v>
+        <v>-0.7570792332559966</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.581771999646441</v>
+        <v>-2.788737227677349</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.587050045746839</v>
+        <v>-5.415185711379742</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.102881435300275</v>
+        <v>3.342432182990547</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.173974890675272</v>
+        <v>-4.194612990185358</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.565127073988939</v>
+        <v>-5.956519154897104</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.071356143822495</v>
+        <v>2.362993837559268</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02682111325344667</v>
+        <v>0.3953071132693987</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1455251590934281</v>
+        <v>-0.3878472509858634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.796228032384149</v>
+        <v>7.958947569811254</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.014429636817347</v>
+        <v>4.897836449142425</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.506990713507009</v>
+        <v>1.284334241753024</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.21630352807287</v>
+        <v>10.17396525694122</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.372907048168486</v>
+        <v>1.500202519960451</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.6139849220123202</v>
+        <v>-0.5371134274328604</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.606152201438123</v>
+        <v>7.822054259152609</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3193334943236169</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2374270699923727</v>
+        <v>0.2374270699923725</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1002092353921618</v>
@@ -1402,7 +1402,7 @@
         <v>-0.1968429608645466</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7281193398889443</v>
+        <v>0.7281193398889446</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1220359610689035</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2696558046617452</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4372802590855602</v>
+        <v>0.4372802590855604</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5056858569676678</v>
+        <v>-0.5064982053518982</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5288734698721135</v>
+        <v>-0.5242645787859455</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07980688190352406</v>
+        <v>-0.05394174242002393</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2383303326504954</v>
+        <v>-0.2510022734608585</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4719557872275961</v>
+        <v>-0.4660763376673122</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2705779418039022</v>
+        <v>0.2506776868010925</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3077442029166133</v>
+        <v>-0.3174252997044336</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4295122745610077</v>
+        <v>-0.440794101346088</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1488178790382323</v>
+        <v>0.1643404197716147</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.003937368214309697</v>
+        <v>0.04551587652246752</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02277126488767643</v>
+        <v>-0.03377036250736554</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6866581842084876</v>
+        <v>0.6874652438403912</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6967790545913082</v>
+        <v>0.6262540860020267</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1854135219137947</v>
+        <v>0.1645527189443928</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.350873642255237</v>
+        <v>1.323946156030775</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1354448462969075</v>
+        <v>0.1486864369740673</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.04595491831731343</v>
+        <v>-0.04813937700381297</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7372259304670948</v>
+        <v>0.7599971280883898</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-3.674462695731274</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.53040484380504</v>
+        <v>2.530404843805043</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-6.079415039524197</v>
@@ -1511,7 +1511,7 @@
         <v>-5.488875482991967</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.257110200439319</v>
+        <v>2.257110200439322</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-4.817273085636561</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.996656426752143</v>
+        <v>-8.069539576255355</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.074235230880181</v>
+        <v>-7.814706316663611</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.906944820529362</v>
+        <v>-1.754689511976355</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-10.44065183726289</v>
+        <v>-10.44368569170422</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.14410118176998</v>
+        <v>-9.637745378273499</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.459137420932727</v>
+        <v>-1.866975967730746</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-7.971316468680155</v>
+        <v>-7.7388125975055</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.307310344915933</v>
+        <v>-7.503651051179543</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.4882924455249346</v>
+        <v>-0.4848829885367638</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8812918031295991</v>
+        <v>0.8132478701038717</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3089715305781399</v>
+        <v>0.5391800396278189</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.970561054030493</v>
+        <v>6.749113250107197</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.186722004693411</v>
+        <v>-1.497939877038711</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.620695523080145</v>
+        <v>-1.25113649250392</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.447466200286502</v>
+        <v>6.253456856728996</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.78752157207388</v>
+        <v>-1.40644312419715</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.458935843113191</v>
+        <v>-1.580127446211177</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.086472399726106</v>
+        <v>5.24562170015462</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3182044178440429</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2191302693501653</v>
+        <v>0.2191302693501656</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.4641722209264039</v>
@@ -1616,7 +1616,7 @@
         <v>-0.4190836629453531</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1723336616766925</v>
+        <v>0.1723336616766927</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.3904253066430919</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5761086649026864</v>
+        <v>-0.5823666625471344</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5512731911539726</v>
+        <v>-0.5599260542457384</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1362578243242878</v>
+        <v>-0.1206975882242769</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.671163777367533</v>
+        <v>-0.6623412686785234</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.6350815767566088</v>
+        <v>-0.6198013577343381</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.09495453700475363</v>
+        <v>-0.1221365449443057</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.5609879269275366</v>
+        <v>-0.5592581009847939</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5362815350086552</v>
+        <v>-0.5428063990907399</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.03545580277316641</v>
+        <v>-0.0299168093774328</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1081078080491931</v>
+        <v>0.1080308302256594</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.05016882650748148</v>
+        <v>0.08480451311833942</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7759705328630037</v>
+        <v>0.762770110371048</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.1865691466350096</v>
+        <v>-0.1257494378029564</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1321859023702472</v>
+        <v>-0.1165817461389305</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6254464462407062</v>
+        <v>0.5862696464757002</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1531082750321382</v>
+        <v>-0.1256715293036009</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1379688273767702</v>
+        <v>-0.1458079812300916</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4913716736457092</v>
+        <v>0.5055682907987644</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-0.7181997039582284</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8.04434229809049</v>
+        <v>8.044342298090488</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>-2.391119620059216</v>
@@ -1725,7 +1725,7 @@
         <v>-0.8542327388763051</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.164471278405737</v>
+        <v>5.164471278405734</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.5167862230847988</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.861291631036523</v>
+        <v>-2.791216919410326</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-4.701487638630761</v>
+        <v>-4.623490518456282</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.986582056914795</v>
+        <v>3.748929294772998</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.935977519472535</v>
+        <v>-6.067552687983312</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.426695088315314</v>
+        <v>-4.769481450314913</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.400864014235419</v>
+        <v>1.166321309966964</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.110942943536941</v>
+        <v>-3.551439230913679</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.253714200142571</v>
+        <v>-3.669777367991428</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>3.857881541184423</v>
+        <v>3.623139875332339</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.920692595951351</v>
+        <v>6.312787155423213</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.834239888726419</v>
+        <v>3.571250676847387</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.28862908275509</v>
+        <v>12.10037161127659</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.194838394404747</v>
+        <v>1.032715085654197</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.796437976282285</v>
+        <v>2.728799391623299</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.37701971357577</v>
+        <v>8.47711410109892</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.487357455215008</v>
+        <v>2.158981201884354</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.115457338267555</v>
+        <v>1.730283273463259</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.212913521968005</v>
+        <v>9.034910603171618</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1222788010548782</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7392661592864223</v>
+        <v>0.7392661592864219</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.0777477204159034</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3681461388311366</v>
+        <v>-0.3723111334085398</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5795118613803366</v>
+        <v>-0.5589703800658129</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.4502532189063699</v>
+        <v>0.3721546752041526</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.664254949223683</v>
+        <v>-0.6611326245839559</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5189354612562805</v>
+        <v>-0.5192347777331348</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1333329474081107</v>
+        <v>0.09112090275133172</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4019471230289913</v>
+        <v>-0.4604532052133548</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4173100205378227</v>
+        <v>-0.4591116516901919</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4216563545343732</v>
+        <v>0.4105917453319773</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.324153080811878</v>
+        <v>1.431737706814401</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6864736230066466</v>
+        <v>0.8501832495159527</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.949141099173638</v>
+        <v>2.806327384364978</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2714615848104487</v>
+        <v>0.2542148245497293</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5364594172262388</v>
+        <v>0.5619810520837276</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.666315787606539</v>
+        <v>1.681077683793148</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4987188249494448</v>
+        <v>0.3833396596334344</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4168932440354337</v>
+        <v>0.3434426186995401</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.711776178136973</v>
+        <v>1.748820922484413</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.06551334917507083</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.097027313586737</v>
+        <v>4.097027313586735</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.2230748015605404</v>
@@ -1948,7 +1948,7 @@
         <v>-0.142769960364194</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>4.046439051630038</v>
+        <v>4.046439051630037</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.51847652729129</v>
+        <v>-5.21153545038162</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.179291120464614</v>
+        <v>-4.40783542758202</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.5657101435643352</v>
+        <v>-0.3229137108404281</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.795524967204502</v>
+        <v>-1.825385305438322</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.607384388745468</v>
+        <v>-2.7130457524157</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>1.322105923875113</v>
+        <v>1.424476756036899</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.214260343999843</v>
+        <v>-2.04828307703247</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.423070323177698</v>
+        <v>-2.422722177186885</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.779205856637539</v>
+        <v>1.703618204421538</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.126223473100934</v>
+        <v>2.949864920208181</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.819486900115107</v>
+        <v>3.094046271216903</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.670433977147111</v>
+        <v>7.429315935240983</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.977132037936435</v>
+        <v>3.993300499608019</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.192608564089865</v>
+        <v>3.152983822481561</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.336833738475538</v>
+        <v>6.659816147702037</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.449887244013253</v>
+        <v>2.682982197079838</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>2.20068660783074</v>
+        <v>2.213656766469869</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.571400127662659</v>
+        <v>6.152224676236375</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.7542552078641951</v>
+        <v>-0.7176897607208849</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6481207370526693</v>
+        <v>-0.609383687530881</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.108560074928487</v>
+        <v>-0.09354752706155403</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4586064566604232</v>
+        <v>-0.4311073764689557</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6384717446004741</v>
+        <v>-0.6590347460019029</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2593712739589702</v>
+        <v>0.1978682538256865</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.4569374467133769</v>
+        <v>-0.4352934977749243</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.5044840985762857</v>
+        <v>-0.4904110286068161</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.31603064449837</v>
+        <v>0.2922020528368012</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.371999545089483</v>
+        <v>1.346480730057039</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.060691765378373</v>
+        <v>1.204002542662858</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>2.938779531738144</v>
+        <v>2.604258436587974</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.622912473247603</v>
+        <v>2.504320547129656</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.371974552239365</v>
+        <v>1.814939015079905</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.144130787876195</v>
+        <v>4.192894768282375</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.9242405493525145</v>
+        <v>1.132760519718853</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.8880148142337041</v>
+        <v>0.8994493713620304</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.596601302491639</v>
+        <v>2.444563500441612</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>-1.777367527497685</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.696097447154179</v>
+        <v>3.696097447154181</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-1.622019559435417</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.939438320830607</v>
+        <v>-2.861595827367404</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.023977520005753</v>
+        <v>-3.906682469382007</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.181183154288539</v>
+        <v>1.189975663044523</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.11201763176827</v>
+        <v>-3.356526087225292</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-3.050281790599187</v>
+        <v>-3.138007178044256</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.286123274957707</v>
+        <v>2.143431609622623</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.628771413339833</v>
+        <v>-2.579759776463503</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.048663558223969</v>
+        <v>-3.033974107143852</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>2.094393144657605</v>
+        <v>2.210159300151735</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.2340972860325731</v>
+        <v>0.04470777117816066</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.8515662149816414</v>
+        <v>-1.004711644723153</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.472417340727815</v>
+        <v>4.668115195005851</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-0.4157962384672252</v>
+        <v>-0.5418898930996542</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.4800580522036216</v>
+        <v>-0.4164366019426564</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.093392074712533</v>
+        <v>5.042343357955299</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-0.5982820319694642</v>
+        <v>-0.4909779444406236</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-1.052322961652077</v>
+        <v>-1.113117673303705</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.316053728749452</v>
+        <v>4.506695361268746</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.1866018920694616</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3880451095464131</v>
+        <v>0.3880451095464134</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.1613921430758968</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2566569951435272</v>
+        <v>-0.2546781094325754</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.3477120348044921</v>
+        <v>-0.340755708017273</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1027615655829909</v>
+        <v>0.106856179543319</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3101597243532737</v>
+        <v>-0.3189673489080134</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2984709131185645</v>
+        <v>-0.306506264979019</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.2184924581244049</v>
+        <v>0.208820915631137</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2467979194864401</v>
+        <v>-0.2419436708374092</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2895044721177085</v>
+        <v>-0.2916444285497553</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1971928738020813</v>
+        <v>0.205692240616075</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.02593117362736834</v>
+        <v>0.006669823073883098</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.08511951993099685</v>
+        <v>-0.09407962362872005</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4499814497945727</v>
+        <v>0.4761448036130995</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.05092303748033347</v>
+        <v>-0.05617466995763897</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.05563327878586873</v>
+        <v>-0.04545737611785572</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.5949080414397634</v>
+        <v>0.5759704546948093</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.05885598566517265</v>
+        <v>-0.0503800686398377</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1097428849801329</v>
+        <v>-0.1156422276727166</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4595327060051475</v>
+        <v>0.4640788848482026</v>
       </c>
     </row>
     <row r="52">
